--- a/SCH-STH/Baseline Mapping/Botwana/2. BOTSWANA SCH STH Mid Term Evaluation - Children Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/2. BOTSWANA SCH STH Mid Term Evaluation - Children Form.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Botwana\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA335401-04C4-40C2-9E74-A4BE93AC59EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="219">
   <si>
     <t>form_title</t>
   </si>
@@ -409,9 +410,6 @@
     <t>Select the school name</t>
   </si>
   <si>
-    <t>select_one provinces</t>
-  </si>
-  <si>
     <t>Select the region</t>
   </si>
   <si>
@@ -427,12 +425,6 @@
     <t>school_list = ${p_school_name}</t>
   </si>
   <si>
-    <t>select_one school_list</t>
-  </si>
-  <si>
-    <t>select_one school_id_list</t>
-  </si>
-  <si>
     <t>provinces</t>
   </si>
   <si>
@@ -692,9 +684,6 @@
   </si>
   <si>
     <t>bw_sch_sth_mid_term_evaluation_2_participant</t>
-  </si>
-  <si>
-    <t>select_one district_list</t>
   </si>
   <si>
     <t>Select the district</t>
@@ -703,7 +692,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1170,33 +1159,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.609375" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" style="21" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="12.609375" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.609375" customWidth="1"/>
+    <col min="10" max="10" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
@@ -1262,15 +1251,15 @@
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>127</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>31</v>
@@ -1286,15 +1275,15 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A4" s="19" t="s">
-        <v>221</v>
+        <v>20</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="14"/>
@@ -1307,12 +1296,12 @@
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="19" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>124</v>
@@ -1331,12 +1320,12 @@
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>51</v>
@@ -1359,10 +1348,10 @@
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
@@ -1386,7 +1375,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="13"/>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19" t="s">
         <v>120</v>
       </c>
@@ -1410,7 +1399,7 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="s">
         <v>69</v>
       </c>
@@ -1434,7 +1423,7 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
@@ -1458,7 +1447,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
@@ -1486,7 +1475,7 @@
       <c r="K11" s="14"/>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="19" t="s">
         <v>71</v>
       </c>
@@ -1510,7 +1499,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
         <v>80</v>
       </c>
@@ -1534,7 +1523,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
@@ -1558,7 +1547,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="19" t="s">
         <v>85</v>
       </c>
@@ -1582,7 +1571,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
         <v>93</v>
       </c>
@@ -1606,7 +1595,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="19" t="s">
         <v>80</v>
       </c>
@@ -1630,7 +1619,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
     </row>
-    <row r="18" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
@@ -1654,7 +1643,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19" t="s">
         <v>85</v>
       </c>
@@ -1678,7 +1667,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
         <v>93</v>
       </c>
@@ -1702,7 +1691,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
     </row>
-    <row r="21" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="20" t="s">
         <v>102</v>
       </c>
@@ -1728,7 +1717,7 @@
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="20" t="s">
         <v>109</v>
       </c>
@@ -1750,7 +1739,7 @@
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="20" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1759,7 @@
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="20" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1779,7 @@
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="19" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1825,14 +1814,14 @@
       <selection pane="bottomLeft" activeCell="A28" sqref="A28:F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="24" customWidth="1"/>
     <col min="3" max="3" width="40" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -1843,16 +1832,16 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
@@ -1863,7 +1852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8" t="s">
         <v>29</v>
       </c>
@@ -1874,7 +1863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="19" t="s">
         <v>121</v>
       </c>
@@ -1885,7 +1874,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8" t="s">
         <v>121</v>
       </c>
@@ -1896,7 +1885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="13" t="s">
         <v>72</v>
       </c>
@@ -1918,7 +1907,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="13" t="s">
         <v>81</v>
       </c>
@@ -1929,7 +1918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="13" t="s">
         <v>81</v>
       </c>
@@ -1940,7 +1929,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="13" t="s">
         <v>81</v>
       </c>
@@ -1951,7 +1940,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="13" t="s">
         <v>81</v>
       </c>
@@ -1962,7 +1951,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="13" t="s">
         <v>81</v>
       </c>
@@ -1973,7 +1962,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="13" t="s">
         <v>81</v>
       </c>
@@ -1984,7 +1973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="13" t="s">
         <v>84</v>
       </c>
@@ -1995,7 +1984,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="13" t="s">
         <v>84</v>
       </c>
@@ -2006,7 +1995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="13" t="s">
         <v>84</v>
       </c>
@@ -2017,7 +2006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="13" t="s">
         <v>108</v>
       </c>
@@ -2028,7 +2017,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="25" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="13" t="s">
         <v>108</v>
       </c>
@@ -2039,7 +2028,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="13" t="s">
         <v>108</v>
       </c>
@@ -2050,7 +2039,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="13" t="s">
         <v>101</v>
       </c>
@@ -2061,7 +2050,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>101</v>
       </c>
@@ -2072,7 +2061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="13" t="s">
         <v>101</v>
       </c>
@@ -2083,7 +2072,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="13" t="s">
         <v>101</v>
       </c>
@@ -2094,7 +2083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="13" t="s">
         <v>101</v>
       </c>
@@ -2105,7 +2094,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="13" t="s">
         <v>101</v>
       </c>
@@ -2116,7 +2105,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="13" t="s">
         <v>101</v>
       </c>
@@ -2127,1137 +2116,1137 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="C28" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C32" s="24" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="D32" t="s">
         <v>134</v>
       </c>
-      <c r="B29" s="24" t="s">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C33" s="24" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="D33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="24" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="E55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
         <v>139</v>
       </c>
-      <c r="C31" s="24" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" t="s">
+        <v>133</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E64" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="E67" t="s">
         <v>139</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="E68" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="E69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="E70" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E72" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E73" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" t="s">
+        <v>133</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E79" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" t="s">
+        <v>133</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="s">
+        <v>133</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="s">
+        <v>133</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E86" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E89" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E90" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="24" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E92" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="D33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="24" t="s">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" t="s">
+        <v>133</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" t="s">
+        <v>133</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E95" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E96" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" t="s">
+        <v>133</v>
+      </c>
+      <c r="B100" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="E101" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E103" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E104" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E105" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>133</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="E107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="E108" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E109" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="D35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="24" t="s">
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E110" t="s">
         <v>144</v>
       </c>
-      <c r="C36" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="D44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="E51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="E52" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>136</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="E55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="E56" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E58" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>136</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="E60" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="E61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="E62" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>136</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="E64" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="E65" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="E66" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E67" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>136</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="E68" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="E69" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E70" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>136</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E72" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>136</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>136</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="E74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>136</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="E77" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E78" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="E79" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>136</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E80" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>136</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>136</v>
-      </c>
-      <c r="B82" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="E82" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="E83" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>136</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="E84" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E85" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>136</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="E86" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>136</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E87" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>136</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="C88" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="E88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>136</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E89" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>136</v>
-      </c>
-      <c r="B90" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="C90" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>136</v>
-      </c>
-      <c r="B91" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E91" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C92" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E92" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C93" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E93" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="E95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="E96" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>136</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C97" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>136</v>
-      </c>
-      <c r="B98" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="E98" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>136</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="E99" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>136</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>136</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="E102" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C103" s="24" t="s">
-        <v>210</v>
-      </c>
-      <c r="E103" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>136</v>
-      </c>
-      <c r="B104" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="C104" s="24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E104" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>136</v>
-      </c>
-      <c r="B105" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="E105" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>136</v>
-      </c>
-      <c r="B106" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>136</v>
-      </c>
-      <c r="B107" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>136</v>
-      </c>
-      <c r="B108" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="C108" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="E108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>136</v>
-      </c>
-      <c r="B109" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="24" t="s">
-        <v>216</v>
-      </c>
-      <c r="E109" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>136</v>
-      </c>
-      <c r="B110" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="E110" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B112" s="24">
         <v>101</v>
@@ -3266,12 +3255,12 @@
         <v>101</v>
       </c>
       <c r="F112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B113" s="24">
         <v>102</v>
@@ -3280,12 +3269,12 @@
         <v>102</v>
       </c>
       <c r="F113" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B114" s="24">
         <v>103</v>
@@ -3294,12 +3283,12 @@
         <v>103</v>
       </c>
       <c r="F114" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B115" s="24">
         <v>104</v>
@@ -3308,12 +3297,12 @@
         <v>104</v>
       </c>
       <c r="F115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B116" s="24">
         <v>105</v>
@@ -3322,12 +3311,12 @@
         <v>105</v>
       </c>
       <c r="F116" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B117" s="24">
         <v>106</v>
@@ -3336,12 +3325,12 @@
         <v>106</v>
       </c>
       <c r="F117" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B118" s="24">
         <v>107</v>
@@ -3350,12 +3339,12 @@
         <v>107</v>
       </c>
       <c r="F118" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B119" s="24">
         <v>108</v>
@@ -3364,12 +3353,12 @@
         <v>108</v>
       </c>
       <c r="F119" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B120" s="24">
         <v>109</v>
@@ -3378,12 +3367,12 @@
         <v>109</v>
       </c>
       <c r="F120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B121" s="24">
         <v>110</v>
@@ -3392,12 +3381,12 @@
         <v>110</v>
       </c>
       <c r="F121" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B122" s="24">
         <v>111</v>
@@ -3406,12 +3395,12 @@
         <v>111</v>
       </c>
       <c r="F122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B123" s="24">
         <v>112</v>
@@ -3420,12 +3409,12 @@
         <v>112</v>
       </c>
       <c r="F123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B124" s="24">
         <v>113</v>
@@ -3434,12 +3423,12 @@
         <v>113</v>
       </c>
       <c r="F124" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B125" s="24">
         <v>114</v>
@@ -3448,12 +3437,12 @@
         <v>114</v>
       </c>
       <c r="F125" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B126" s="24">
         <v>115</v>
@@ -3462,12 +3451,12 @@
         <v>115</v>
       </c>
       <c r="F126" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B127" s="24">
         <v>116</v>
@@ -3476,12 +3465,12 @@
         <v>116</v>
       </c>
       <c r="F127" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B128" s="24">
         <v>117</v>
@@ -3490,12 +3479,12 @@
         <v>117</v>
       </c>
       <c r="F128" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B129" s="24">
         <v>118</v>
@@ -3504,12 +3493,12 @@
         <v>118</v>
       </c>
       <c r="F129" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B130" s="24">
         <v>119</v>
@@ -3518,12 +3507,12 @@
         <v>119</v>
       </c>
       <c r="F130" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B131" s="24">
         <v>120</v>
@@ -3532,12 +3521,12 @@
         <v>120</v>
       </c>
       <c r="F131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B132" s="24">
         <v>121</v>
@@ -3546,12 +3535,12 @@
         <v>121</v>
       </c>
       <c r="F132" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B133" s="24">
         <v>122</v>
@@ -3560,12 +3549,12 @@
         <v>122</v>
       </c>
       <c r="F133" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B134" s="24">
         <v>123</v>
@@ -3574,12 +3563,12 @@
         <v>123</v>
       </c>
       <c r="F134" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B135" s="24">
         <v>124</v>
@@ -3588,12 +3577,12 @@
         <v>124</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B136" s="24">
         <v>125</v>
@@ -3602,12 +3591,12 @@
         <v>125</v>
       </c>
       <c r="F136" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B137" s="24">
         <v>126</v>
@@ -3616,12 +3605,12 @@
         <v>126</v>
       </c>
       <c r="F137" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B138" s="24">
         <v>127</v>
@@ -3630,12 +3619,12 @@
         <v>127</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B139" s="24">
         <v>128</v>
@@ -3644,12 +3633,12 @@
         <v>128</v>
       </c>
       <c r="F139" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B140" s="24">
         <v>129</v>
@@ -3658,12 +3647,12 @@
         <v>129</v>
       </c>
       <c r="F140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B141" s="24">
         <v>130</v>
@@ -3672,12 +3661,12 @@
         <v>130</v>
       </c>
       <c r="F141" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B142" s="24">
         <v>131</v>
@@ -3686,12 +3675,12 @@
         <v>131</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B143" s="24">
         <v>132</v>
@@ -3700,12 +3689,12 @@
         <v>132</v>
       </c>
       <c r="F143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B144" s="24">
         <v>133</v>
@@ -3714,12 +3703,12 @@
         <v>133</v>
       </c>
       <c r="F144" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B145" s="24">
         <v>134</v>
@@ -3728,12 +3717,12 @@
         <v>134</v>
       </c>
       <c r="F145" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B146" s="24">
         <v>135</v>
@@ -3742,12 +3731,12 @@
         <v>135</v>
       </c>
       <c r="F146" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B147" s="24">
         <v>136</v>
@@ -3756,12 +3745,12 @@
         <v>136</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B148" s="24">
         <v>137</v>
@@ -3770,12 +3759,12 @@
         <v>137</v>
       </c>
       <c r="F148" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B149" s="24">
         <v>138</v>
@@ -3784,12 +3773,12 @@
         <v>138</v>
       </c>
       <c r="F149" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B150" s="24">
         <v>139</v>
@@ -3798,12 +3787,12 @@
         <v>139</v>
       </c>
       <c r="F150" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B151" s="24">
         <v>140</v>
@@ -3812,12 +3801,12 @@
         <v>140</v>
       </c>
       <c r="F151" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B152" s="24">
         <v>141</v>
@@ -3826,12 +3815,12 @@
         <v>141</v>
       </c>
       <c r="F152" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B153" s="24">
         <v>142</v>
@@ -3840,12 +3829,12 @@
         <v>142</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B154" s="24">
         <v>143</v>
@@ -3854,12 +3843,12 @@
         <v>143</v>
       </c>
       <c r="F154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B155" s="24">
         <v>144</v>
@@ -3868,12 +3857,12 @@
         <v>144</v>
       </c>
       <c r="F155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B156" s="24">
         <v>145</v>
@@ -3882,12 +3871,12 @@
         <v>145</v>
       </c>
       <c r="F156" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B157" s="24">
         <v>146</v>
@@ -3896,12 +3885,12 @@
         <v>146</v>
       </c>
       <c r="F157" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B158" s="24">
         <v>147</v>
@@ -3910,12 +3899,12 @@
         <v>147</v>
       </c>
       <c r="F158" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B159" s="24">
         <v>148</v>
@@ -3924,12 +3913,12 @@
         <v>148</v>
       </c>
       <c r="F159" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B160" s="24">
         <v>149</v>
@@ -3938,12 +3927,12 @@
         <v>149</v>
       </c>
       <c r="F160" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B161" s="24">
         <v>150</v>
@@ -3952,12 +3941,12 @@
         <v>150</v>
       </c>
       <c r="F161" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B162" s="24">
         <v>151</v>
@@ -3966,12 +3955,12 @@
         <v>151</v>
       </c>
       <c r="F162" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B163" s="24">
         <v>152</v>
@@ -3980,12 +3969,12 @@
         <v>152</v>
       </c>
       <c r="F163" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B164" s="24">
         <v>153</v>
@@ -3994,12 +3983,12 @@
         <v>153</v>
       </c>
       <c r="F164" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B165" s="24">
         <v>154</v>
@@ -4008,12 +3997,12 @@
         <v>154</v>
       </c>
       <c r="F165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B166" s="24">
         <v>155</v>
@@ -4022,12 +4011,12 @@
         <v>155</v>
       </c>
       <c r="F166" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B167" s="24">
         <v>156</v>
@@ -4036,12 +4025,12 @@
         <v>156</v>
       </c>
       <c r="F167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B168" s="24">
         <v>157</v>
@@ -4050,12 +4039,12 @@
         <v>157</v>
       </c>
       <c r="F168" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B169" s="24">
         <v>158</v>
@@ -4064,12 +4053,12 @@
         <v>158</v>
       </c>
       <c r="F169" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B170" s="24">
         <v>159</v>
@@ -4078,12 +4067,12 @@
         <v>159</v>
       </c>
       <c r="F170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B171" s="24">
         <v>160</v>
@@ -4092,11 +4081,11 @@
         <v>160</v>
       </c>
       <c r="F171" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A14:C59">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:C59">
     <sortCondition ref="B14:B59"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4105,21 +4094,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4133,12 +4122,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2">
         <v>202106</v>

--- a/SCH-STH/Baseline Mapping/Botwana/2. BOTSWANA SCH STH Mid Term Evaluation - Children Form.xlsx
+++ b/SCH-STH/Baseline Mapping/Botwana/2. BOTSWANA SCH STH Mid Term Evaluation - Children Form.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 01.07.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WHO\03-21\Docs\BOTSWANA\BOTSWANA SCH STH Mid Term Evaluation Forms 09.07.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="142">
   <si>
     <t>form_title</t>
   </si>
@@ -430,15 +430,6 @@
     <t>p_dist_abbr</t>
   </si>
   <si>
-    <t>2. BOTSWANA SCH/STH Mid Term Evaluation - Children Form V2</t>
-  </si>
-  <si>
-    <t>bw_sch_sth_mid_term_evaluation_2_participant_v2</t>
-  </si>
-  <si>
-    <t>202106_v2</t>
-  </si>
-  <si>
     <t>. &gt; 9 and . &lt; 100</t>
   </si>
   <si>
@@ -452,6 +443,18 @@
   </si>
   <si>
     <t>The format must be like AB-01-01 (District abbreviation-school code-participant position)</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>2. BOTSWANA SCH/STH Mid Term Evaluation - Children Form V2.1</t>
+  </si>
+  <si>
+    <t>bw_sch_sth_mid_term_evaluation_2_participant_v2.1</t>
+  </si>
+  <si>
+    <t>202106_v2.1</t>
   </si>
 </sst>
 </file>
@@ -917,11 +920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -993,10 +996,10 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
@@ -1249,20 +1252,20 @@
         <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8" t="s">
         <v>107</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>125</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>26</v>
@@ -1689,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C4"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1998,6 +2001,17 @@
       </c>
       <c r="C27" s="17" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2013,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2040,13 +2054,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
